--- a/People spreadsheet.xlsx
+++ b/People spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerrit\Documents\College BAAAAAYBEEEEEE\Math Bio Site\hymanlab.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A6FD337-4A92-47E5-A9BE-4D5602274026}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BC3E66-0509-434C-A527-B6C0E43E4C37}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5955" xr2:uid="{9C06E373-AECE-4E5B-9F33-8D3B6D0334FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>Stafford, Erin E" &lt;estaffor@tulane.edu&gt;, </t>
   </si>
@@ -103,13 +103,70 @@
   </si>
   <si>
     <t>zqu2@tulane.edu</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Link 1</t>
+  </si>
+  <si>
+    <t>Link 2</t>
+  </si>
+  <si>
+    <t>Link 3</t>
+  </si>
+  <si>
+    <t>Link 4</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Post doc</t>
+  </si>
+  <si>
+    <t>https://zhuolinqu.github.io/</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?hl=en&amp;user=1_QPacMAAAAJ</t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Zhuolin_Qu</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/zhuolinqu/</t>
+  </si>
+  <si>
+    <t>My research is in mathematical modeling for</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        infectious diseases. I use math tools to help public health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        researchers better understand how diseases spread and</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        optimize the mitigation resources. Recently, I am looking into</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Wolbachia transmission in wild mosquitoes to control mosquito-borne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        diseases.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,6 +179,22 @@
       <color rgb="FF212121"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,14 +214,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -461,10 +538,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC129DD4-5708-4C25-BE56-42085CE9C315}">
-  <dimension ref="B2:C14"/>
+  <dimension ref="B1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -472,7 +549,33 @@
     <col min="2" max="2" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -480,7 +583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -488,7 +591,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -496,15 +599,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -512,7 +618,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -520,7 +626,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -528,56 +634,89 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
+      <c r="J14" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G9" r:id="rId1" xr:uid="{E7920C75-54EA-40FE-A984-9D0DD45CD352}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId2"/>
 </worksheet>
 </file>
--- a/People spreadsheet.xlsx
+++ b/People spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerrit\Documents\College BAAAAAYBEEEEEE\Math Bio Site\hymanlab.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4BC3E66-0509-434C-A527-B6C0E43E4C37}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4931DF18-4975-4ACA-BE2E-EF0D4ECA697F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5955" xr2:uid="{9C06E373-AECE-4E5B-9F33-8D3B6D0334FB}"/>
   </bookViews>
@@ -540,8 +540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC129DD4-5708-4C25-BE56-42085CE9C315}">
   <dimension ref="B1:J14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C2:C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/People spreadsheet.xlsx
+++ b/People spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerrit\Documents\College BAAAAAYBEEEEEE\Math Bio Site\hymanlab.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4931DF18-4975-4ACA-BE2E-EF0D4ECA697F}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1178E035-1D47-4868-A81C-F535494F6803}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5955" xr2:uid="{9C06E373-AECE-4E5B-9F33-8D3B6D0334FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>Stafford, Erin E" &lt;estaffor@tulane.edu&gt;, </t>
   </si>
@@ -160,13 +160,28 @@
   </si>
   <si>
     <t xml:space="preserve">        diseases.</t>
+  </si>
+  <si>
+    <t>Away, but not forgotten</t>
+  </si>
+  <si>
+    <t>(Soodeh, Carrie, Ling, Kyle, Jessie, …. ) </t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/zhe-qu</t>
+  </si>
+  <si>
+    <t>PhD Candidate</t>
+  </si>
+  <si>
+    <t>I am a PhD candidate in Math Department of Tulane University. My current research interests are high dimensional data analysis, especially integrative analysis of neuroimaging or genomic data.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -196,6 +211,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -218,11 +240,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -538,10 +566,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC129DD4-5708-4C25-BE56-42085CE9C315}">
-  <dimension ref="B1:J14"/>
+  <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C2:C14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,7 +577,7 @@
     <col min="2" max="2" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>26</v>
       </c>
@@ -575,7 +603,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -583,7 +611,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -591,7 +619,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -599,7 +627,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -610,7 +638,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>4</v>
       </c>
@@ -618,7 +646,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
@@ -626,7 +654,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -634,7 +662,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>7</v>
       </c>
@@ -656,67 +684,87 @@
       <c r="J9" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="K9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" t="s">
+        <v>41</v>
+      </c>
+      <c r="M9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" t="s">
+        <v>43</v>
+      </c>
+      <c r="O9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
       </c>
-      <c r="J10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="J11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C12" t="s">
         <v>23</v>
       </c>
-      <c r="J12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="J13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" ht="16.5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C14" t="s">
         <v>25</v>
       </c>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="J14" t="s">
-        <v>44</v>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="5" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" xr:uid="{E7920C75-54EA-40FE-A984-9D0DD45CD352}"/>
+    <hyperlink ref="F14" r:id="rId2" display="http://www.linkedin.com/in/zhe-qu" xr:uid="{1354B411-9D63-4FA1-8781-C4A142645949}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId2"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId3"/>
 </worksheet>
 </file>
--- a/People spreadsheet.xlsx
+++ b/People spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerrit\Documents\College BAAAAAYBEEEEEE\Math Bio Site\hymanlab.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1178E035-1D47-4868-A81C-F535494F6803}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DD50A3-76F6-4480-97E7-B71BCF362901}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5955" xr2:uid="{9C06E373-AECE-4E5B-9F33-8D3B6D0334FB}"/>
   </bookViews>
@@ -569,7 +569,7 @@
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/People spreadsheet.xlsx
+++ b/People spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerrit\Documents\College BAAAAAYBEEEEEE\Math Bio Site\hymanlab.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DD50A3-76F6-4480-97E7-B71BCF362901}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214238C0-2040-4186-9346-01259B7D03E2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5955" xr2:uid="{9C06E373-AECE-4E5B-9F33-8D3B6D0334FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
   <si>
     <t>Stafford, Erin E" &lt;estaffor@tulane.edu&gt;, </t>
   </si>
@@ -175,6 +175,18 @@
   </si>
   <si>
     <t>I am a PhD candidate in Math Department of Tulane University. My current research interests are high dimensional data analysis, especially integrative analysis of neuroimaging or genomic data.</t>
+  </si>
+  <si>
+    <t>Jessica Conrad</t>
+  </si>
+  <si>
+    <t>jconrad4@tulane.edu</t>
+  </si>
+  <si>
+    <t>https://jessicarconrad.github.io/</t>
+  </si>
+  <si>
+    <t>Graduate Student</t>
   </si>
 </sst>
 </file>
@@ -219,12 +231,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -240,17 +258,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -569,7 +589,7 @@
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -603,19 +623,19 @@
         <v>32</v>
       </c>
     </row>
-    <row r="2" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="6" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="1" t="s">
+    <row r="3" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
     </row>
@@ -627,22 +647,22 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="1" t="s">
+    <row r="5" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="6" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>17</v>
       </c>
     </row>
@@ -662,49 +682,49 @@
         <v>19</v>
       </c>
     </row>
-    <row r="9" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
+    <row r="9" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F9" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J9" t="s">
+      <c r="J9" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L9" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N9" t="s">
+      <c r="N9" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="O9" t="s">
+      <c r="O9" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
+    <row r="10" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
     </row>
@@ -724,38 +744,52 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B13" s="1" t="s">
+    <row r="13" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B13" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
+    <row r="14" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="6" t="s">
         <v>49</v>
       </c>
     </row>
+    <row r="15" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="19" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="20" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>46</v>
       </c>
     </row>
@@ -763,8 +797,9 @@
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" xr:uid="{E7920C75-54EA-40FE-A984-9D0DD45CD352}"/>
     <hyperlink ref="F14" r:id="rId2" display="http://www.linkedin.com/in/zhe-qu" xr:uid="{1354B411-9D63-4FA1-8781-C4A142645949}"/>
+    <hyperlink ref="C15" r:id="rId3" xr:uid="{7FF20E8B-0982-4404-A974-9F864537CF87}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId3"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/People spreadsheet.xlsx
+++ b/People spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerrit\Documents\College BAAAAAYBEEEEEE\Math Bio Site\hymanlab.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{214238C0-2040-4186-9346-01259B7D03E2}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F300CF-B955-4279-8C60-FB95536B18A6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5955" xr2:uid="{9C06E373-AECE-4E5B-9F33-8D3B6D0334FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>Stafford, Erin E" &lt;estaffor@tulane.edu&gt;, </t>
   </si>
@@ -187,13 +187,33 @@
   </si>
   <si>
     <t>Graduate Student</t>
+  </si>
+  <si>
+    <t>Graduate  Student</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/li-guan-113244162/</t>
+  </si>
+  <si>
+    <r>
+      <t>My current research interest focuses on mathematical models in epidemiology. In particular, I am interested in general vector-borne transmission models with variable infectiousness as a function of time since infection, with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF111111"/>
+        <rFont val="Segoe UI"/>
+        <family val="2"/>
+      </rPr>
+      <t>probability distributions for the rate of disease progression and with variability in susceptibility to infections. I am also interested in parameter sensitivity analysis, identification and estimations by fitting models to data.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +250,18 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF111111"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF111111"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -258,7 +290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -271,6 +303,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -588,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC129DD4-5708-4C25-BE56-42085CE9C315}">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,20 +699,29 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B7" s="1" t="s">
+    <row r="7" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="E7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">

--- a/People spreadsheet.xlsx
+++ b/People spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerrit\Documents\College BAAAAAYBEEEEEE\Math Bio Site\hymanlab.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4F300CF-B955-4279-8C60-FB95536B18A6}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B69F8AD-7452-428F-BB85-0CD82A3DC2F3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5955" xr2:uid="{9C06E373-AECE-4E5B-9F33-8D3B6D0334FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Stafford, Erin E" &lt;estaffor@tulane.edu&gt;, </t>
   </si>
@@ -208,12 +208,18 @@
       <t>probability distributions for the rate of disease progression and with variability in susceptibility to infections. I am also interested in parameter sensitivity analysis, identification and estimations by fitting models to data.</t>
     </r>
   </si>
+  <si>
+    <t>My current research interests include data assimilation algorithms, numerical methods for time-dependent PDEs, hyperbolic conservation laws and numerical analysis. My current project is on data assimilation by combining the underlying time-dependent PDE model and interpolation from scattered spatial observations to improve future predictions.</t>
+  </si>
+  <si>
+    <t>Post-Doc</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -262,6 +268,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF212529"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -290,7 +302,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -304,6 +316,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -622,7 +635,7 @@
   <dimension ref="B1:O20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -778,12 +791,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
+    <row r="12" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="6" t="s">
         <v>23</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">

--- a/People spreadsheet.xlsx
+++ b/People spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerrit\Documents\College BAAAAAYBEEEEEE\Math Bio Site\hymanlab.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B69F8AD-7452-428F-BB85-0CD82A3DC2F3}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118F2143-7CE0-41D8-9C0F-8D6A5EB2E8A1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5955" xr2:uid="{9C06E373-AECE-4E5B-9F33-8D3B6D0334FB}"/>
   </bookViews>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC129DD4-5708-4C25-BE56-42085CE9C315}">
   <dimension ref="B1:O20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/People spreadsheet.xlsx
+++ b/People spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerrit\Documents\College BAAAAAYBEEEEEE\Math Bio Site\hymanlab.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118F2143-7CE0-41D8-9C0F-8D6A5EB2E8A1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF9F497-67A5-4A8D-8881-ACFFED4D2ACF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5955" xr2:uid="{9C06E373-AECE-4E5B-9F33-8D3B6D0334FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Stafford, Erin E" &lt;estaffor@tulane.edu&gt;, </t>
   </si>
@@ -214,12 +214,54 @@
   <si>
     <t>Post-Doc</t>
   </si>
+  <si>
+    <t>"Hickmann, Kyle Scott" hickmank@lanl.gov</t>
+  </si>
+  <si>
+    <t>"Justin.K.Davis@sdstate.edu" </t>
+  </si>
+  <si>
+    <t>Justin.K.Davis@sdstate.edu</t>
+  </si>
+  <si>
+    <t>hickmank@lanl.gov</t>
+  </si>
+  <si>
+    <t>"Manore, Carrie Anna" </t>
+  </si>
+  <si>
+    <t>cmanore@lanl.gov</t>
+  </si>
+  <si>
+    <t>Soodeh Azizi </t>
+  </si>
+  <si>
+    <t>soodeh.azizi@gmail.com</t>
+  </si>
+  <si>
+    <t>"Thongsripong, Panpim" </t>
+  </si>
+  <si>
+    <t>pthongsr@tulane.edu</t>
+  </si>
+  <si>
+    <t>"Conrad, Jessica" </t>
+  </si>
+  <si>
+    <t>jconrad4@lanl.gov</t>
+  </si>
+  <si>
+    <t>Elliot Hill</t>
+  </si>
+  <si>
+    <t>ehill3@tulane.edu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -274,6 +316,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF17394D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -302,7 +350,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -317,6 +365,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -632,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC129DD4-5708-4C25-BE56-42085CE9C315}">
-  <dimension ref="B1:O20"/>
+  <dimension ref="B1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,6 +756,24 @@
       <c r="E5" s="6" t="s">
         <v>34</v>
       </c>
+      <c r="J5" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="L5" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="6" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
@@ -712,7 +783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:15" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
         <v>5</v>
       </c>
@@ -725,16 +796,16 @@
       <c r="F7" s="6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="8" spans="2:15" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="J7" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" t="s">
         <v>19</v>
-      </c>
-      <c r="J8" s="8" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="9" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -756,24 +827,6 @@
       <c r="I9" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="J9" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M9" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="10" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
@@ -783,12 +836,15 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
+    <row r="11" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="6" t="s">
         <v>22</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -801,9 +857,6 @@
       <c r="E12" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="J12" s="9" t="s">
-        <v>57</v>
-      </c>
     </row>
     <row r="13" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
@@ -844,14 +897,70 @@
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:15" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>46</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -859,8 +968,14 @@
     <hyperlink ref="G9" r:id="rId1" xr:uid="{E7920C75-54EA-40FE-A984-9D0DD45CD352}"/>
     <hyperlink ref="F14" r:id="rId2" display="http://www.linkedin.com/in/zhe-qu" xr:uid="{1354B411-9D63-4FA1-8781-C4A142645949}"/>
     <hyperlink ref="C15" r:id="rId3" xr:uid="{7FF20E8B-0982-4404-A974-9F864537CF87}"/>
+    <hyperlink ref="B22" r:id="rId4" display="mailto:hickmank@lanl.gov" xr:uid="{992BA6DA-E17B-4BA2-894D-0A8E419B4036}"/>
+    <hyperlink ref="B23" r:id="rId5" display="mailto:cmanore@lanl.gov" xr:uid="{BD418878-6693-4A0D-9F89-880348375B88}"/>
+    <hyperlink ref="B24" r:id="rId6" display="mailto:soodeh.azizi@gmail.com" xr:uid="{715A99A0-8FD5-466A-9EB4-55F8E4F79AB2}"/>
+    <hyperlink ref="B25" r:id="rId7" display="mailto:pthongsr@tulane.edu" xr:uid="{84AADDD4-8058-48EB-A5CC-FBB275DC37C9}"/>
+    <hyperlink ref="B26" r:id="rId8" display="mailto:jconrad4@lanl.gov" xr:uid="{26233C90-D230-4EC0-9874-42A04F4A92E4}"/>
+    <hyperlink ref="C16" r:id="rId9" xr:uid="{C8C4C440-3862-457B-9F00-D36270143D13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId10"/>
 </worksheet>
 </file>
--- a/People spreadsheet.xlsx
+++ b/People spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerrit\Documents\College BAAAAAYBEEEEEE\Math Bio Site\hymanlab.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BF9F497-67A5-4A8D-8881-ACFFED4D2ACF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DAB87F-48E8-492E-9648-D90486DC82AC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5955" xr2:uid="{9C06E373-AECE-4E5B-9F33-8D3B6D0334FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Stafford, Erin E" &lt;estaffor@tulane.edu&gt;, </t>
   </si>
@@ -239,12 +239,6 @@
     <t>soodeh.azizi@gmail.com</t>
   </si>
   <si>
-    <t>"Thongsripong, Panpim" </t>
-  </si>
-  <si>
-    <t>pthongsr@tulane.edu</t>
-  </si>
-  <si>
     <t>"Conrad, Jessica" </t>
   </si>
   <si>
@@ -255,13 +249,34 @@
   </si>
   <si>
     <t>ehill3@tulane.edu</t>
+  </si>
+  <si>
+    <t>Panpim Throngsripong</t>
+  </si>
+  <si>
+    <t>tpanpim@gmail.com</t>
+  </si>
+  <si>
+    <t>Ph.D. Student</t>
+  </si>
+  <si>
+    <t>My research revolves around mosquitoes and mosquito-borne viruses. Even though my background is in the biology and ecology of disease transmission, I have always been interested in using mathematical tools to understand how diseases spread. Specifically, I am interested in using novel methods to quantify various disease transmission parameters with the hope to bridge biology with modeling. Currently, I hold a postdoctoral position in the Microbiology Department at the California Academy of Sciences. Other topics I’m currently working on include virus discovery, disease ecology, and education and public outreach.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/thongsripong/</t>
+  </si>
+  <si>
+    <t>https://tpanpim.wordpress.com</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/thongsripong/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,6 +337,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF212121"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -350,7 +371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -370,6 +391,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -687,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC129DD4-5708-4C25-BE56-42085CE9C315}">
   <dimension ref="B1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -899,23 +922,24 @@
     </row>
     <row r="16" spans="2:15" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>60</v>
       </c>
@@ -923,7 +947,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>59</v>
       </c>
@@ -931,7 +955,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>63</v>
       </c>
@@ -939,7 +963,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="24" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>65</v>
       </c>
@@ -947,20 +971,35 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
+    <row r="25" spans="2:10" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" s="6" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="2:3" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -971,11 +1010,14 @@
     <hyperlink ref="B22" r:id="rId4" display="mailto:hickmank@lanl.gov" xr:uid="{992BA6DA-E17B-4BA2-894D-0A8E419B4036}"/>
     <hyperlink ref="B23" r:id="rId5" display="mailto:cmanore@lanl.gov" xr:uid="{BD418878-6693-4A0D-9F89-880348375B88}"/>
     <hyperlink ref="B24" r:id="rId6" display="mailto:soodeh.azizi@gmail.com" xr:uid="{715A99A0-8FD5-466A-9EB4-55F8E4F79AB2}"/>
-    <hyperlink ref="B25" r:id="rId7" display="mailto:pthongsr@tulane.edu" xr:uid="{84AADDD4-8058-48EB-A5CC-FBB275DC37C9}"/>
-    <hyperlink ref="B26" r:id="rId8" display="mailto:jconrad4@lanl.gov" xr:uid="{26233C90-D230-4EC0-9874-42A04F4A92E4}"/>
-    <hyperlink ref="C16" r:id="rId9" xr:uid="{C8C4C440-3862-457B-9F00-D36270143D13}"/>
+    <hyperlink ref="B26" r:id="rId7" display="mailto:jconrad4@lanl.gov" xr:uid="{26233C90-D230-4EC0-9874-42A04F4A92E4}"/>
+    <hyperlink ref="C16" r:id="rId8" xr:uid="{C8C4C440-3862-457B-9F00-D36270143D13}"/>
+    <hyperlink ref="C25" r:id="rId9" xr:uid="{B928184E-082A-48A9-AB10-1F6B8F345AC1}"/>
+    <hyperlink ref="F25" r:id="rId10" xr:uid="{9CB5608F-5746-4852-AE78-347AEB7C9AE0}"/>
+    <hyperlink ref="G25" r:id="rId11" display="https://tpanpim.wordpress.com/" xr:uid="{34D2A698-24D9-49F8-B4B6-61F7B6DB85E5}"/>
+    <hyperlink ref="H25" r:id="rId12" xr:uid="{8CC79A90-29E0-4CA9-8AE5-A4D000C6D76F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId10"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId13"/>
 </worksheet>
 </file>
--- a/People spreadsheet.xlsx
+++ b/People spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerrit\Documents\College BAAAAAYBEEEEEE\Math Bio Site\hymanlab.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DAB87F-48E8-492E-9648-D90486DC82AC}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324EA824-EE57-469A-9B82-C6E302234608}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5955" xr2:uid="{9C06E373-AECE-4E5B-9F33-8D3B6D0334FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
   <si>
     <t>Stafford, Erin E" &lt;estaffor@tulane.edu&gt;, </t>
   </si>
@@ -270,6 +270,15 @@
   </si>
   <si>
     <t>https://www.instagram.com/thongsripong/</t>
+  </si>
+  <si>
+    <t>Post-Doctoral Researcher</t>
+  </si>
+  <si>
+    <t>While at Tulane, I modeled several infectious diseases including mosquito-borne diseases such as Zika virus, chikungunya, dengue, and West Nile virus. I worked with dozens of researcher in an interdisciplinary setting to provide insight needed to understand, prevent, and control infectious disease spread in heterogeneous environments. Now I am a Staff Scientist at Los Alamos National Laboratory, first in the Theoretical Biology and Biophysics groups (T-6) and now in the Information Systems and Modeling group (A-1). I continue to tackle questions related to human health and infectious diseases, including statistical and mechanistic models and big data/data fusions problems.</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=fnRQY34AAAAJ&amp;hl=en</t>
   </si>
 </sst>
 </file>
@@ -710,8 +719,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC129DD4-5708-4C25-BE56-42085CE9C315}">
   <dimension ref="B1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -955,12 +964,21 @@
         <v>62</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
+    <row r="23" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="6" t="s">
         <v>64</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">

--- a/People spreadsheet.xlsx
+++ b/People spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerrit\Documents\College BAAAAAYBEEEEEE\Math Bio Site\hymanlab.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{324EA824-EE57-469A-9B82-C6E302234608}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E17369-834B-488F-8300-D48A381C95E0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5955" xr2:uid="{9C06E373-AECE-4E5B-9F33-8D3B6D0334FB}"/>
   </bookViews>
@@ -221,9 +221,6 @@
     <t>"Justin.K.Davis@sdstate.edu" </t>
   </si>
   <si>
-    <t>Justin.K.Davis@sdstate.edu</t>
-  </si>
-  <si>
     <t>hickmank@lanl.gov</t>
   </si>
   <si>
@@ -279,13 +276,16 @@
   </si>
   <si>
     <t>https://scholar.google.com/citations?user=fnRQY34AAAAJ&amp;hl=en</t>
+  </si>
+  <si>
+    <t>justinkdavis@ou.edu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -352,6 +352,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -380,7 +387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -402,6 +409,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -719,8 +727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC129DD4-5708-4C25-BE56-42085CE9C315}">
   <dimension ref="B1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -774,7 +782,7 @@
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -931,10 +939,10 @@
     </row>
     <row r="16" spans="2:15" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="13" t="s">
         <v>69</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="17" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -948,12 +956,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C21" t="s">
-        <v>61</v>
+      <c r="C21" s="17" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:10" x14ac:dyDescent="0.25">
@@ -961,63 +969,63 @@
         <v>59</v>
       </c>
       <c r="C22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>64</v>
-      </c>
       <c r="E23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>78</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C24" t="s">
         <v>65</v>
-      </c>
-      <c r="C24" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="25" spans="2:10" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="E25" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="J25" s="16" t="s">
         <v>73</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1034,8 +1042,9 @@
     <hyperlink ref="F25" r:id="rId10" xr:uid="{9CB5608F-5746-4852-AE78-347AEB7C9AE0}"/>
     <hyperlink ref="G25" r:id="rId11" display="https://tpanpim.wordpress.com/" xr:uid="{34D2A698-24D9-49F8-B4B6-61F7B6DB85E5}"/>
     <hyperlink ref="H25" r:id="rId12" xr:uid="{8CC79A90-29E0-4CA9-8AE5-A4D000C6D76F}"/>
+    <hyperlink ref="C4" r:id="rId13" xr:uid="{C04CCAB3-35FE-47FD-B030-C1FEC3FBB058}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId13"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId14"/>
 </worksheet>
 </file>
--- a/People spreadsheet.xlsx
+++ b/People spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerrit\Documents\College BAAAAAYBEEEEEE\Math Bio Site\hymanlab.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32E17369-834B-488F-8300-D48A381C95E0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F30B451-21F1-4586-B884-E91D06A13A23}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5955" xr2:uid="{9C06E373-AECE-4E5B-9F33-8D3B6D0334FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>Stafford, Erin E" &lt;estaffor@tulane.edu&gt;, </t>
   </si>
@@ -279,6 +279,15 @@
   </si>
   <si>
     <t>justinkdavis@ou.edu</t>
+  </si>
+  <si>
+    <t>Graduate student/PhD Candidate </t>
+  </si>
+  <si>
+    <t>https://www.researchgate.net/profile/Christian_Geneus</t>
+  </si>
+  <si>
+    <t>My current research under the supervision of both Dr. Hyman and Qu places emphasis on the use of mathematics and graph/network theory to understand stochastic processes such as the spread of epidemics. Specifically, we determine at what point an epidemic model such as an SI, SIR, and SIS becomes predictable. In other words, at what point does a deterministic model dictate the behavior of the epidemic? Other areas of research interest include using uncertainty quantification and parameter estimation for network modeling and fitting data.</t>
   </si>
 </sst>
 </file>
@@ -387,7 +396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -410,6 +419,7 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -727,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC129DD4-5708-4C25-BE56-42085CE9C315}">
   <dimension ref="B1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -840,12 +850,21 @@
         <v>56</v>
       </c>
     </row>
-    <row r="8" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+    <row r="8" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="6" t="s">
         <v>19</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -1043,8 +1062,9 @@
     <hyperlink ref="G25" r:id="rId11" display="https://tpanpim.wordpress.com/" xr:uid="{34D2A698-24D9-49F8-B4B6-61F7B6DB85E5}"/>
     <hyperlink ref="H25" r:id="rId12" xr:uid="{8CC79A90-29E0-4CA9-8AE5-A4D000C6D76F}"/>
     <hyperlink ref="C4" r:id="rId13" xr:uid="{C04CCAB3-35FE-47FD-B030-C1FEC3FBB058}"/>
+    <hyperlink ref="F8" r:id="rId14" xr:uid="{0FD47756-C2C0-4C04-BE3C-7495A5BAEA48}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId14"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId15"/>
 </worksheet>
 </file>
--- a/People spreadsheet.xlsx
+++ b/People spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerrit\Documents\College BAAAAAYBEEEEEE\Math Bio Site\hymanlab.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F30B451-21F1-4586-B884-E91D06A13A23}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52C5EF1-C812-47AC-A28C-0712132EFF27}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5955" xr2:uid="{9C06E373-AECE-4E5B-9F33-8D3B6D0334FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
   <si>
     <t>Stafford, Erin E" &lt;estaffor@tulane.edu&gt;, </t>
   </si>
@@ -288,6 +288,15 @@
   </si>
   <si>
     <t>My current research under the supervision of both Dr. Hyman and Qu places emphasis on the use of mathematics and graph/network theory to understand stochastic processes such as the spread of epidemics. Specifically, we determine at what point an epidemic model such as an SI, SIR, and SIS becomes predictable. In other words, at what point does a deterministic model dictate the behavior of the epidemic? Other areas of research interest include using uncertainty quantification and parameter estimation for network modeling and fitting data.</t>
+  </si>
+  <si>
+    <t>Undergraduate</t>
+  </si>
+  <si>
+    <t>I am an undergraduate student at Tulane University pursuing a Bachelor of Science degree in Mathematics and Chemistry. My research interests include exploring the results that different network structures have in regards to SIR, SIS, and SI epidemic models. Specifically, the stochastic and deterministic stages that these epidemics can be broken down into to better understand their time-dependent spread through a population.</t>
+  </si>
+  <si>
+    <t>www.linkedin.com/in/rhea-kataria-1362a8132 </t>
   </si>
 </sst>
 </file>
@@ -396,7 +405,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -420,6 +429,9 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -737,8 +749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC129DD4-5708-4C25-BE56-42085CE9C315}">
   <dimension ref="B1:O26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -788,13 +800,27 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B4" s="1" t="s">
+    <row r="4" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="7" t="s">
         <v>15</v>
       </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
@@ -906,14 +932,14 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="5" t="s">
+    <row r="12" spans="2:15" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="6" t="s">
+      <c r="E12" s="14" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1063,8 +1089,9 @@
     <hyperlink ref="H25" r:id="rId12" xr:uid="{8CC79A90-29E0-4CA9-8AE5-A4D000C6D76F}"/>
     <hyperlink ref="C4" r:id="rId13" xr:uid="{C04CCAB3-35FE-47FD-B030-C1FEC3FBB058}"/>
     <hyperlink ref="F8" r:id="rId14" xr:uid="{0FD47756-C2C0-4C04-BE3C-7495A5BAEA48}"/>
+    <hyperlink ref="F4" r:id="rId15" display="http://www.linkedin.com/in/rhea-kataria-1362a8132" xr:uid="{0E1DCA15-C9A6-4737-B452-7FA9C37F0B1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId15"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId16"/>
 </worksheet>
 </file>
--- a/People spreadsheet.xlsx
+++ b/People spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerrit\Documents\College BAAAAAYBEEEEEE\Math Bio Site\hymanlab.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B52C5EF1-C812-47AC-A28C-0712132EFF27}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32724E1-6194-4FC2-BF73-09C44371A014}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5955" xr2:uid="{9C06E373-AECE-4E5B-9F33-8D3B6D0334FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
   <si>
     <t>Stafford, Erin E" &lt;estaffor@tulane.edu&gt;, </t>
   </si>
@@ -297,6 +297,18 @@
   </si>
   <si>
     <t>www.linkedin.com/in/rhea-kataria-1362a8132 </t>
+  </si>
+  <si>
+    <t>Jeremy Dewar</t>
+  </si>
+  <si>
+    <t>jdewar@tulane.edu</t>
+  </si>
+  <si>
+    <t>https://github.com/jdewar</t>
+  </si>
+  <si>
+    <t>http://math.tulane.edu/~jdewar/</t>
   </si>
 </sst>
 </file>
@@ -747,10 +759,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC129DD4-5708-4C25-BE56-42085CE9C315}">
-  <dimension ref="B1:O26"/>
+  <dimension ref="B1:O27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1072,6 +1084,27 @@
       <c r="C26" s="6" t="s">
         <v>67</v>
       </c>
+    </row>
+    <row r="27" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/People spreadsheet.xlsx
+++ b/People spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerrit\Documents\College BAAAAAYBEEEEEE\Math Bio Site\hymanlab.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F32724E1-6194-4FC2-BF73-09C44371A014}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F36D497-64AA-462A-9175-402CF0D0873E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5955" xr2:uid="{9C06E373-AECE-4E5B-9F33-8D3B6D0334FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
   <si>
     <t>Stafford, Erin E" &lt;estaffor@tulane.edu&gt;, </t>
   </si>
@@ -310,12 +310,27 @@
   <si>
     <t>http://math.tulane.edu/~jdewar/</t>
   </si>
+  <si>
+    <t>Ling Xue</t>
+  </si>
+  <si>
+    <t>https://scholar.google.com/citations?user=9GSPC4wAAAAJ&amp;hl=en&amp;oi=sra</t>
+  </si>
+  <si>
+    <t>http://homepage.hrbeu.edu.cn/web/xueling</t>
+  </si>
+  <si>
+    <t>Dr. Xue research focuses on creating and analyzing mathematical modelis for the spread of infectious diseases.  Her research ranges from mosquito-borne diseases, such as dengue fever, Zika, and chikungunya to the modeling the spread of the Ebola Virus disease. </t>
+  </si>
+  <si>
+    <t>lxue2@tulane.edu</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -389,6 +404,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF201F1E"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -417,7 +438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -444,6 +465,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -759,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC129DD4-5708-4C25-BE56-42085CE9C315}">
-  <dimension ref="B1:O27"/>
+  <dimension ref="B1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1002,129 +1024,152 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="19" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B19" s="3" t="s">
+    <row r="17" spans="2:10" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="4" t="s">
+    <row r="21" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B21" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B21" s="10" t="s">
+    <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B22" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C22" s="17" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="23" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="7" t="s">
+    <row r="24" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C24" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E23" s="6" t="s">
+      <c r="E24" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="6" t="s">
+      <c r="F24" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="J23" s="6" t="s">
+      <c r="J24" s="6" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="2:10" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B25" s="5" t="s">
+    <row r="26" spans="2:10" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B26" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C26" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="E26" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="F26" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H25" s="7" t="s">
+      <c r="H26" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="J25" s="16" t="s">
+      <c r="J26" s="16" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="7" t="s">
+    <row r="27" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="27" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+    <row r="28" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C28" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="F27" s="6" t="s">
+      <c r="F28" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G28" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
+      <c r="H28" s="6"/>
+      <c r="I28" s="6"/>
+      <c r="J28" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="G9" r:id="rId1" xr:uid="{E7920C75-54EA-40FE-A984-9D0DD45CD352}"/>
     <hyperlink ref="F14" r:id="rId2" display="http://www.linkedin.com/in/zhe-qu" xr:uid="{1354B411-9D63-4FA1-8781-C4A142645949}"/>
     <hyperlink ref="C15" r:id="rId3" xr:uid="{7FF20E8B-0982-4404-A974-9F864537CF87}"/>
-    <hyperlink ref="B22" r:id="rId4" display="mailto:hickmank@lanl.gov" xr:uid="{992BA6DA-E17B-4BA2-894D-0A8E419B4036}"/>
-    <hyperlink ref="B23" r:id="rId5" display="mailto:cmanore@lanl.gov" xr:uid="{BD418878-6693-4A0D-9F89-880348375B88}"/>
-    <hyperlink ref="B24" r:id="rId6" display="mailto:soodeh.azizi@gmail.com" xr:uid="{715A99A0-8FD5-466A-9EB4-55F8E4F79AB2}"/>
-    <hyperlink ref="B26" r:id="rId7" display="mailto:jconrad4@lanl.gov" xr:uid="{26233C90-D230-4EC0-9874-42A04F4A92E4}"/>
+    <hyperlink ref="B23" r:id="rId4" display="mailto:hickmank@lanl.gov" xr:uid="{992BA6DA-E17B-4BA2-894D-0A8E419B4036}"/>
+    <hyperlink ref="B24" r:id="rId5" display="mailto:cmanore@lanl.gov" xr:uid="{BD418878-6693-4A0D-9F89-880348375B88}"/>
+    <hyperlink ref="B25" r:id="rId6" display="mailto:soodeh.azizi@gmail.com" xr:uid="{715A99A0-8FD5-466A-9EB4-55F8E4F79AB2}"/>
+    <hyperlink ref="B27" r:id="rId7" display="mailto:jconrad4@lanl.gov" xr:uid="{26233C90-D230-4EC0-9874-42A04F4A92E4}"/>
     <hyperlink ref="C16" r:id="rId8" xr:uid="{C8C4C440-3862-457B-9F00-D36270143D13}"/>
-    <hyperlink ref="C25" r:id="rId9" xr:uid="{B928184E-082A-48A9-AB10-1F6B8F345AC1}"/>
-    <hyperlink ref="F25" r:id="rId10" xr:uid="{9CB5608F-5746-4852-AE78-347AEB7C9AE0}"/>
-    <hyperlink ref="G25" r:id="rId11" display="https://tpanpim.wordpress.com/" xr:uid="{34D2A698-24D9-49F8-B4B6-61F7B6DB85E5}"/>
-    <hyperlink ref="H25" r:id="rId12" xr:uid="{8CC79A90-29E0-4CA9-8AE5-A4D000C6D76F}"/>
+    <hyperlink ref="C26" r:id="rId9" xr:uid="{B928184E-082A-48A9-AB10-1F6B8F345AC1}"/>
+    <hyperlink ref="F26" r:id="rId10" xr:uid="{9CB5608F-5746-4852-AE78-347AEB7C9AE0}"/>
+    <hyperlink ref="G26" r:id="rId11" display="https://tpanpim.wordpress.com/" xr:uid="{34D2A698-24D9-49F8-B4B6-61F7B6DB85E5}"/>
+    <hyperlink ref="H26" r:id="rId12" xr:uid="{8CC79A90-29E0-4CA9-8AE5-A4D000C6D76F}"/>
     <hyperlink ref="C4" r:id="rId13" xr:uid="{C04CCAB3-35FE-47FD-B030-C1FEC3FBB058}"/>
     <hyperlink ref="F8" r:id="rId14" xr:uid="{0FD47756-C2C0-4C04-BE3C-7495A5BAEA48}"/>
     <hyperlink ref="F4" r:id="rId15" display="http://www.linkedin.com/in/rhea-kataria-1362a8132" xr:uid="{0E1DCA15-C9A6-4737-B452-7FA9C37F0B1E}"/>
+    <hyperlink ref="F17" r:id="rId16" tooltip="Original URL: https://scholar.google.com/citations?user=9GSPC4wAAAAJ&amp;hl=en&amp;oi=sra. Click or tap if you trust this link." display="https://nam03.safelinks.protection.outlook.com/?url=https%3A%2F%2Fscholar.google.com%2Fcitations%3Fuser%3D9GSPC4wAAAAJ%26hl%3Den%26oi%3Dsra&amp;data=02%7C01%7Cgvanbeek%40tulane.edu%7C743bfd7459c4434569c508d83f27f18a%7C9de9818325d94b139fc34de5489c1f3b%7C1%7C0%7C637328788073855812&amp;sdata=gI9mqIwO8ezahCzrfJ4TFRO7ABO0ggXSSEVCYwIDDBY%3D&amp;reserved=0" xr:uid="{9FF091D1-6E23-4C32-B474-E0CAF13D68CD}"/>
+    <hyperlink ref="G17" r:id="rId17" tooltip="Original URL: http://homepage.hrbeu.edu.cn/web/xueling. Click or tap if you trust this link." display="https://nam03.safelinks.protection.outlook.com/?url=http%3A%2F%2Fhomepage.hrbeu.edu.cn%2Fweb%2Fxueling&amp;data=02%7C01%7Cgvanbeek%40tulane.edu%7C743bfd7459c4434569c508d83f27f18a%7C9de9818325d94b139fc34de5489c1f3b%7C1%7C0%7C637328788073855812&amp;sdata=r%2F65rlw376QrX%2BwdLR4tcwk6dSDb9scoMpSoA5DRJS4%3D&amp;reserved=0" xr:uid="{EA248A8B-DA71-4FF3-A62A-6572E3BC1F1C}"/>
+    <hyperlink ref="C17" r:id="rId18" xr:uid="{68964F5F-C4E7-4C4E-BEE3-7D7D7E0777A9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId16"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId19"/>
 </worksheet>
 </file>
--- a/People spreadsheet.xlsx
+++ b/People spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerrit\Documents\College BAAAAAYBEEEEEE\Math Bio Site\hymanlab.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F36D497-64AA-462A-9175-402CF0D0873E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9694419-8637-4DCD-915C-5FEF5C33EDD0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5955" xr2:uid="{9C06E373-AECE-4E5B-9F33-8D3B6D0334FB}"/>
   </bookViews>
@@ -465,7 +465,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -784,7 +784,7 @@
   <dimension ref="B1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B17" sqref="B17:O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1024,38 +1024,46 @@
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="2:10" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="12" t="s">
+    <row r="17" spans="2:15" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="15" t="s">
         <v>95</v>
       </c>
+      <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="7" t="s">
         <v>93</v>
       </c>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
       <c r="J17" s="20" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="2:10" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B20" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="2:10" ht="16.5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="10" t="s">
         <v>60</v>
       </c>
@@ -1063,7 +1071,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>59</v>
       </c>
@@ -1071,7 +1079,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>62</v>
       </c>
@@ -1088,7 +1096,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>64</v>
       </c>
@@ -1096,7 +1104,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="26" spans="2:10" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B26" s="5" t="s">
         <v>70</v>
       </c>
@@ -1119,7 +1127,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="2:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>66</v>
       </c>
@@ -1127,7 +1135,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="28" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B28" s="6" t="s">
         <v>87</v>
       </c>

--- a/People spreadsheet.xlsx
+++ b/People spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerrit\Documents\College BAAAAAYBEEEEEE\Math Bio Site\hymanlab.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9694419-8637-4DCD-915C-5FEF5C33EDD0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D97983-5B72-4CD3-8C79-1A6D626538DF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5955" xr2:uid="{9C06E373-AECE-4E5B-9F33-8D3B6D0334FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
   <si>
     <t>Stafford, Erin E" &lt;estaffor@tulane.edu&gt;, </t>
   </si>
@@ -73,9 +73,6 @@
   </si>
   <si>
     <t>rkataria@tulane.edu</t>
-  </si>
-  <si>
-    <t>zqu1@tulane.edu</t>
   </si>
   <si>
     <t>ylu6@tulane.edu</t>
@@ -324,6 +321,12 @@
   </si>
   <si>
     <t>lxue2@tulane.edu</t>
+  </si>
+  <si>
+    <t>zhuolin.qu@utsa.edu</t>
+  </si>
+  <si>
+    <t>Assistant Professor at UT San Antonio</t>
   </si>
 </sst>
 </file>
@@ -781,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC129DD4-5708-4C25-BE56-42085CE9C315}">
-  <dimension ref="B1:O28"/>
+  <dimension ref="B1:R29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17:O17"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -794,28 +797,28 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="2" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -843,341 +846,362 @@
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="17" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K4" s="6"/>
     </row>
-    <row r="5" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>44</v>
-      </c>
-    </row>
+    <row r="5" spans="2:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="6" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B6" s="5" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15" s="6" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B7" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>56</v>
+      <c r="E7" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F7" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B8" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>83</v>
+      <c r="F8" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="6" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B9" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="10" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B10" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="11" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6" t="s">
+      <c r="J10" s="9" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="J11" s="9" t="s">
+      <c r="E11" s="14" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="2:15" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="14" t="s">
+    <row r="12" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="13" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B13" s="5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>24</v>
       </c>
+      <c r="E13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" s="6" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="14" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>25</v>
+        <v>49</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E15" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>52</v>
+    </row>
+    <row r="15" spans="2:15" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:15" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="B20" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B25" s="5" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="17" spans="2:15" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="C17" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="K17" s="6"/>
-      <c r="L17" s="6"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="6"/>
-      <c r="O17" s="6"/>
-    </row>
-    <row r="18" spans="2:15" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B20" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:15" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="B21" s="4" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B23" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="F24" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J24" s="6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B25" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="C25" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B26" s="7" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="26" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B26" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="H26" s="7" t="s">
+      <c r="C26" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B27" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="J26" s="16" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="2:15" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="2:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C28" s="9" t="s">
+      <c r="F27" s="6" t="s">
         <v>88</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="H27" s="6"/>
+      <c r="I27" s="6"/>
+      <c r="J27" s="6"/>
+    </row>
+    <row r="28" spans="2:18" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="B28" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" s="6" t="s">
+        <v>17</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="F28" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G28" s="6" t="s">
-        <v>90</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
+      <c r="J28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="6"/>
+      <c r="N28" s="6"/>
+      <c r="O28" s="6"/>
+      <c r="P28" s="6"/>
+      <c r="Q28" s="6"/>
+    </row>
+    <row r="29" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="L29" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M29" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O29" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="P29" s="6"/>
+      <c r="Q29" s="6"/>
+      <c r="R29" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="G9" r:id="rId1" xr:uid="{E7920C75-54EA-40FE-A984-9D0DD45CD352}"/>
-    <hyperlink ref="F14" r:id="rId2" display="http://www.linkedin.com/in/zhe-qu" xr:uid="{1354B411-9D63-4FA1-8781-C4A142645949}"/>
-    <hyperlink ref="C15" r:id="rId3" xr:uid="{7FF20E8B-0982-4404-A974-9F864537CF87}"/>
-    <hyperlink ref="B23" r:id="rId4" display="mailto:hickmank@lanl.gov" xr:uid="{992BA6DA-E17B-4BA2-894D-0A8E419B4036}"/>
-    <hyperlink ref="B24" r:id="rId5" display="mailto:cmanore@lanl.gov" xr:uid="{BD418878-6693-4A0D-9F89-880348375B88}"/>
-    <hyperlink ref="B25" r:id="rId6" display="mailto:soodeh.azizi@gmail.com" xr:uid="{715A99A0-8FD5-466A-9EB4-55F8E4F79AB2}"/>
-    <hyperlink ref="B27" r:id="rId7" display="mailto:jconrad4@lanl.gov" xr:uid="{26233C90-D230-4EC0-9874-42A04F4A92E4}"/>
-    <hyperlink ref="C16" r:id="rId8" xr:uid="{C8C4C440-3862-457B-9F00-D36270143D13}"/>
-    <hyperlink ref="C26" r:id="rId9" xr:uid="{B928184E-082A-48A9-AB10-1F6B8F345AC1}"/>
-    <hyperlink ref="F26" r:id="rId10" xr:uid="{9CB5608F-5746-4852-AE78-347AEB7C9AE0}"/>
-    <hyperlink ref="G26" r:id="rId11" display="https://tpanpim.wordpress.com/" xr:uid="{34D2A698-24D9-49F8-B4B6-61F7B6DB85E5}"/>
-    <hyperlink ref="H26" r:id="rId12" xr:uid="{8CC79A90-29E0-4CA9-8AE5-A4D000C6D76F}"/>
+    <hyperlink ref="G8" r:id="rId1" xr:uid="{E7920C75-54EA-40FE-A984-9D0DD45CD352}"/>
+    <hyperlink ref="F13" r:id="rId2" display="http://www.linkedin.com/in/zhe-qu" xr:uid="{1354B411-9D63-4FA1-8781-C4A142645949}"/>
+    <hyperlink ref="C14" r:id="rId3" xr:uid="{7FF20E8B-0982-4404-A974-9F864537CF87}"/>
+    <hyperlink ref="B22" r:id="rId4" display="mailto:hickmank@lanl.gov" xr:uid="{992BA6DA-E17B-4BA2-894D-0A8E419B4036}"/>
+    <hyperlink ref="B23" r:id="rId5" display="mailto:cmanore@lanl.gov" xr:uid="{BD418878-6693-4A0D-9F89-880348375B88}"/>
+    <hyperlink ref="B24" r:id="rId6" display="mailto:soodeh.azizi@gmail.com" xr:uid="{715A99A0-8FD5-466A-9EB4-55F8E4F79AB2}"/>
+    <hyperlink ref="B26" r:id="rId7" display="mailto:jconrad4@lanl.gov" xr:uid="{26233C90-D230-4EC0-9874-42A04F4A92E4}"/>
+    <hyperlink ref="C15" r:id="rId8" xr:uid="{C8C4C440-3862-457B-9F00-D36270143D13}"/>
+    <hyperlink ref="C25" r:id="rId9" xr:uid="{B928184E-082A-48A9-AB10-1F6B8F345AC1}"/>
+    <hyperlink ref="F25" r:id="rId10" xr:uid="{9CB5608F-5746-4852-AE78-347AEB7C9AE0}"/>
+    <hyperlink ref="G25" r:id="rId11" display="https://tpanpim.wordpress.com/" xr:uid="{34D2A698-24D9-49F8-B4B6-61F7B6DB85E5}"/>
+    <hyperlink ref="H25" r:id="rId12" xr:uid="{8CC79A90-29E0-4CA9-8AE5-A4D000C6D76F}"/>
     <hyperlink ref="C4" r:id="rId13" xr:uid="{C04CCAB3-35FE-47FD-B030-C1FEC3FBB058}"/>
-    <hyperlink ref="F8" r:id="rId14" xr:uid="{0FD47756-C2C0-4C04-BE3C-7495A5BAEA48}"/>
+    <hyperlink ref="F7" r:id="rId14" xr:uid="{0FD47756-C2C0-4C04-BE3C-7495A5BAEA48}"/>
     <hyperlink ref="F4" r:id="rId15" display="http://www.linkedin.com/in/rhea-kataria-1362a8132" xr:uid="{0E1DCA15-C9A6-4737-B452-7FA9C37F0B1E}"/>
-    <hyperlink ref="F17" r:id="rId16" tooltip="Original URL: https://scholar.google.com/citations?user=9GSPC4wAAAAJ&amp;hl=en&amp;oi=sra. Click or tap if you trust this link." display="https://nam03.safelinks.protection.outlook.com/?url=https%3A%2F%2Fscholar.google.com%2Fcitations%3Fuser%3D9GSPC4wAAAAJ%26hl%3Den%26oi%3Dsra&amp;data=02%7C01%7Cgvanbeek%40tulane.edu%7C743bfd7459c4434569c508d83f27f18a%7C9de9818325d94b139fc34de5489c1f3b%7C1%7C0%7C637328788073855812&amp;sdata=gI9mqIwO8ezahCzrfJ4TFRO7ABO0ggXSSEVCYwIDDBY%3D&amp;reserved=0" xr:uid="{9FF091D1-6E23-4C32-B474-E0CAF13D68CD}"/>
-    <hyperlink ref="G17" r:id="rId17" tooltip="Original URL: http://homepage.hrbeu.edu.cn/web/xueling. Click or tap if you trust this link." display="https://nam03.safelinks.protection.outlook.com/?url=http%3A%2F%2Fhomepage.hrbeu.edu.cn%2Fweb%2Fxueling&amp;data=02%7C01%7Cgvanbeek%40tulane.edu%7C743bfd7459c4434569c508d83f27f18a%7C9de9818325d94b139fc34de5489c1f3b%7C1%7C0%7C637328788073855812&amp;sdata=r%2F65rlw376QrX%2BwdLR4tcwk6dSDb9scoMpSoA5DRJS4%3D&amp;reserved=0" xr:uid="{EA248A8B-DA71-4FF3-A62A-6572E3BC1F1C}"/>
-    <hyperlink ref="C17" r:id="rId18" xr:uid="{68964F5F-C4E7-4C4E-BEE3-7D7D7E0777A9}"/>
+    <hyperlink ref="F16" r:id="rId16" tooltip="Original URL: https://scholar.google.com/citations?user=9GSPC4wAAAAJ&amp;hl=en&amp;oi=sra. Click or tap if you trust this link." display="https://nam03.safelinks.protection.outlook.com/?url=https%3A%2F%2Fscholar.google.com%2Fcitations%3Fuser%3D9GSPC4wAAAAJ%26hl%3Den%26oi%3Dsra&amp;data=02%7C01%7Cgvanbeek%40tulane.edu%7C743bfd7459c4434569c508d83f27f18a%7C9de9818325d94b139fc34de5489c1f3b%7C1%7C0%7C637328788073855812&amp;sdata=gI9mqIwO8ezahCzrfJ4TFRO7ABO0ggXSSEVCYwIDDBY%3D&amp;reserved=0" xr:uid="{9FF091D1-6E23-4C32-B474-E0CAF13D68CD}"/>
+    <hyperlink ref="G16" r:id="rId17" tooltip="Original URL: http://homepage.hrbeu.edu.cn/web/xueling. Click or tap if you trust this link." display="https://nam03.safelinks.protection.outlook.com/?url=http%3A%2F%2Fhomepage.hrbeu.edu.cn%2Fweb%2Fxueling&amp;data=02%7C01%7Cgvanbeek%40tulane.edu%7C743bfd7459c4434569c508d83f27f18a%7C9de9818325d94b139fc34de5489c1f3b%7C1%7C0%7C637328788073855812&amp;sdata=r%2F65rlw376QrX%2BwdLR4tcwk6dSDb9scoMpSoA5DRJS4%3D&amp;reserved=0" xr:uid="{EA248A8B-DA71-4FF3-A62A-6572E3BC1F1C}"/>
+    <hyperlink ref="C16" r:id="rId18" xr:uid="{68964F5F-C4E7-4C4E-BEE3-7D7D7E0777A9}"/>
+    <hyperlink ref="C29" r:id="rId19" xr:uid="{1785685F-B0CB-4A1D-8894-6311D465368F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId19"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId20"/>
 </worksheet>
 </file>
--- a/People spreadsheet.xlsx
+++ b/People spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerrit\Documents\College BAAAAAYBEEEEEE\Math Bio Site\hymanlab.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D97983-5B72-4CD3-8C79-1A6D626538DF}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA830005-155A-4805-ABAF-29A11F7D393E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5955" xr2:uid="{9C06E373-AECE-4E5B-9F33-8D3B6D0334FB}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t>Stafford, Erin E" &lt;estaffor@tulane.edu&gt;, </t>
   </si>
@@ -327,6 +327,15 @@
   </si>
   <si>
     <t>Assistant Professor at UT San Antonio</t>
+  </si>
+  <si>
+    <t>Post Bac Researcher</t>
+  </si>
+  <si>
+    <t>I am a postbac fellow at the National Institutes of Health. I am interested in visual neuroscience, specifically comparing behavior with higher-level processing through experimental and computational methods. I graduated Tulane in 2019 with majors in mathematics and neuroscience and a public health minor. With the Mathematical Modeling and Analysis Lab, I studied the effects of diabetes on the progression and drug resistance of tuberculosis. I also previously worked on modeling vector-borne diseases with multiple risk groups and behavioral factors.</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/emily-meyer-769a95158/</t>
   </si>
 </sst>
 </file>
@@ -784,10 +793,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC129DD4-5708-4C25-BE56-42085CE9C315}">
-  <dimension ref="B1:R29"/>
+  <dimension ref="B1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30:K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,14 +838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
+    <row r="3" spans="2:15" s="6" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="4" spans="2:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="5" t="s">
         <v>2</v>
@@ -1178,6 +1180,28 @@
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
       <c r="R29" s="6"/>
+    </row>
+    <row r="30" spans="2:18" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="B30" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="K30" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1200,8 +1224,9 @@
     <hyperlink ref="G16" r:id="rId17" tooltip="Original URL: http://homepage.hrbeu.edu.cn/web/xueling. Click or tap if you trust this link." display="https://nam03.safelinks.protection.outlook.com/?url=http%3A%2F%2Fhomepage.hrbeu.edu.cn%2Fweb%2Fxueling&amp;data=02%7C01%7Cgvanbeek%40tulane.edu%7C743bfd7459c4434569c508d83f27f18a%7C9de9818325d94b139fc34de5489c1f3b%7C1%7C0%7C637328788073855812&amp;sdata=r%2F65rlw376QrX%2BwdLR4tcwk6dSDb9scoMpSoA5DRJS4%3D&amp;reserved=0" xr:uid="{EA248A8B-DA71-4FF3-A62A-6572E3BC1F1C}"/>
     <hyperlink ref="C16" r:id="rId18" xr:uid="{68964F5F-C4E7-4C4E-BEE3-7D7D7E0777A9}"/>
     <hyperlink ref="C29" r:id="rId19" xr:uid="{1785685F-B0CB-4A1D-8894-6311D465368F}"/>
+    <hyperlink ref="F30" r:id="rId20" xr:uid="{7A39FB7B-EB75-468F-B223-C0C09F75D15F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId20"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId21"/>
 </worksheet>
 </file>
--- a/People spreadsheet.xlsx
+++ b/People spreadsheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gerrit\Documents\College BAAAAAYBEEEEEE\Math Bio Site\hymanlab.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA830005-155A-4805-ABAF-29A11F7D393E}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3EE0EC0-FE0E-4B3C-AA3A-8B0D8CE81EA0}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13890" windowHeight="5955" xr2:uid="{9C06E373-AECE-4E5B-9F33-8D3B6D0334FB}"/>
   </bookViews>
@@ -69,9 +69,6 @@
     <t>estaffor@tulane.edu</t>
   </si>
   <si>
-    <t>emeyer2@tulane.edu</t>
-  </si>
-  <si>
     <t>rkataria@tulane.edu</t>
   </si>
   <si>
@@ -336,6 +333,9 @@
   </si>
   <si>
     <t>https://www.linkedin.com/in/emily-meyer-769a95158/</t>
+  </si>
+  <si>
+    <t>emeyer121@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -796,7 +796,7 @@
   <dimension ref="B1:R30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:K30"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,28 +806,28 @@
   <sheetData>
     <row r="1" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -844,20 +844,20 @@
         <v>2</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="6"/>
       <c r="E4" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
       <c r="J4" s="17" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K4" s="6"/>
     </row>
@@ -867,7 +867,7 @@
         <v>4</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -875,16 +875,16 @@
         <v>6</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="J7" s="18" t="s">
         <v>81</v>
-      </c>
-      <c r="J7" s="18" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="8" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -892,19 +892,19 @@
         <v>7</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="I8" s="6" t="s">
         <v>36</v>
-      </c>
-      <c r="I8" s="6" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -912,7 +912,7 @@
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -920,10 +920,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="2:15" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -931,10 +931,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -942,7 +942,7 @@
         <v>11</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
@@ -950,61 +950,61 @@
         <v>12</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="J13" s="6" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="14" spans="2:15" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="E14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="E14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="15" spans="2:15" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="13" t="s">
         <v>67</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="16" spans="2:15" s="14" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D16" s="6"/>
       <c r="E16" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
       <c r="J16" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K16" s="6"/>
       <c r="L16" s="6"/>
@@ -1015,102 +1015,102 @@
     <row r="17" spans="2:18" s="14" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="19" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="2:18" ht="16.5" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>62</v>
-      </c>
       <c r="E23" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J23" s="6" t="s">
         <v>76</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="24" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
         <v>63</v>
-      </c>
-      <c r="C24" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="25" spans="2:18" s="6" customFormat="1" ht="16.5" x14ac:dyDescent="0.3">
       <c r="B25" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C25" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="E25" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="6" t="s">
+      <c r="F25" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J25" s="16" t="s">
         <v>71</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="H25" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="26" spans="2:18" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="6" t="s">
         <v>65</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="27" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C27" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="G27" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -1121,20 +1121,20 @@
         <v>5</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F28" s="6" t="s">
         <v>53</v>
-      </c>
-      <c r="F28" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
       <c r="J28" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="K28" s="6"/>
       <c r="L28" s="6"/>
@@ -1149,33 +1149,33 @@
         <v>3</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
       <c r="J29" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="K29" s="6" t="s">
+      <c r="L29" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="L29" s="6" t="s">
+      <c r="M29" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M29" s="6" t="s">
+      <c r="N29" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="N29" s="6" t="s">
+      <c r="O29" s="6" t="s">
         <v>42</v>
-      </c>
-      <c r="O29" s="6" t="s">
-        <v>43</v>
       </c>
       <c r="P29" s="6"/>
       <c r="Q29" s="6"/>
@@ -1185,21 +1185,21 @@
       <c r="B30" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="6" t="s">
-        <v>14</v>
+      <c r="C30" s="11" t="s">
+        <v>99</v>
       </c>
       <c r="D30" s="6"/>
       <c r="E30" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
       <c r="J30" s="18" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K30" s="6"/>
     </row>
@@ -1225,8 +1225,9 @@
     <hyperlink ref="C16" r:id="rId18" xr:uid="{68964F5F-C4E7-4C4E-BEE3-7D7D7E0777A9}"/>
     <hyperlink ref="C29" r:id="rId19" xr:uid="{1785685F-B0CB-4A1D-8894-6311D465368F}"/>
     <hyperlink ref="F30" r:id="rId20" xr:uid="{7A39FB7B-EB75-468F-B223-C0C09F75D15F}"/>
+    <hyperlink ref="C30" r:id="rId21" display="mailto:emeyer121@gmail.com" xr:uid="{0DCDC9C7-37F3-4AFA-BB68-CAE5FBE79151}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId21"/>
+  <pageSetup orientation="portrait" verticalDpi="300" r:id="rId22"/>
 </worksheet>
 </file>